--- a/references/background_data/c2-c4.xlsx
+++ b/references/background_data/c2-c4.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C362C7-7A4B-492B-A8D7-2F230CA1219F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB251983-67AA-4EB4-8E31-5C7C4674DB8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c2-c4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'c2-c4'!$A$1:$N$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1741,9 +1744,6 @@
     <t>Description_Tally</t>
   </si>
   <si>
-    <t xml:space="preserve">Aluminum curtain wall system, YKK AP - EPD </t>
-  </si>
-  <si>
     <t>Aluminum extrusion, AEC - EPD</t>
   </si>
   <si>
@@ -1754,9 +1754,6 @@
   </si>
   <si>
     <t>Aluminum extrusion, painted, AEC - EPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluminum storefront system, YKK AP - EPD </t>
   </si>
   <si>
     <t>Aluminum window wall system, YKK AP - EPD</t>
@@ -1936,6 +1933,12 @@
   </si>
   <si>
     <t>GWP-LULUC_eol</t>
+  </si>
+  <si>
+    <t>Aluminum curtain wall system, YKK AP - EPD</t>
+  </si>
+  <si>
+    <t>Aluminum storefront system, YKK AP - EPD</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2786,7 @@
   <dimension ref="A1:N288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -2823,7 +2826,7 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -3008,7 +3011,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="E6" t="s">
         <v>482</v>
@@ -3049,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E7" t="s">
         <v>484</v>
@@ -3090,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E8" t="s">
         <v>486</v>
@@ -3131,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E9" t="s">
         <v>488</v>
@@ -3172,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E10" t="s">
         <v>490</v>
@@ -3213,7 +3216,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>578</v>
+        <v>637</v>
       </c>
       <c r="E11" t="s">
         <v>492</v>
@@ -3254,7 +3257,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E12" t="s">
         <v>494</v>
@@ -3418,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E16" t="s">
         <v>462</v>
@@ -3541,7 +3544,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E19" t="s">
         <v>379</v>
@@ -3623,7 +3626,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E21" t="s">
         <v>381</v>
@@ -3664,7 +3667,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E22" t="s">
         <v>383</v>
@@ -3910,7 +3913,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E28" t="s">
         <v>393</v>
@@ -4033,7 +4036,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E31" t="s">
         <v>504</v>
@@ -4279,7 +4282,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E37" t="s">
         <v>468</v>
@@ -5140,7 +5143,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E58" t="s">
         <v>290</v>
@@ -5181,7 +5184,7 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E59" t="s">
         <v>433</v>
@@ -5304,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E62" t="s">
         <v>508</v>
@@ -5345,7 +5348,7 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E63" t="s">
         <v>506</v>
@@ -5509,7 +5512,7 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E67" t="s">
         <v>395</v>
@@ -5550,7 +5553,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E68" t="s">
         <v>385</v>
@@ -5591,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E69" t="s">
         <v>387</v>
@@ -5673,7 +5676,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E71" t="s">
         <v>389</v>
@@ -6001,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E79" t="s">
         <v>464</v>
@@ -6165,7 +6168,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E83" t="s">
         <v>399</v>
@@ -8379,7 +8382,7 @@
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E137" t="s">
         <v>418</v>
@@ -8420,7 +8423,7 @@
         <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E138" t="s">
         <v>435</v>
@@ -8461,7 +8464,7 @@
         <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E139" t="s">
         <v>437</v>
@@ -8623,7 +8626,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E143" t="s">
         <v>401</v>
@@ -8828,7 +8831,7 @@
         <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E148" t="s">
         <v>439</v>
@@ -8869,7 +8872,7 @@
         <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E149" t="s">
         <v>405</v>
@@ -8910,7 +8913,7 @@
         <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E150" t="s">
         <v>412</v>
@@ -9033,7 +9036,7 @@
         <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E153" t="s">
         <v>312</v>
@@ -9156,7 +9159,7 @@
         <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E156" t="s">
         <v>420</v>
@@ -9279,7 +9282,7 @@
         <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E159" t="s">
         <v>460</v>
@@ -9566,7 +9569,7 @@
         <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E166" t="s">
         <v>441</v>
@@ -9607,7 +9610,7 @@
         <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E167" t="s">
         <v>443</v>
@@ -9648,7 +9651,7 @@
         <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E168" t="s">
         <v>445</v>
@@ -9689,7 +9692,7 @@
         <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E169" t="s">
         <v>447</v>
@@ -9730,7 +9733,7 @@
         <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E170" t="s">
         <v>449</v>
@@ -9771,7 +9774,7 @@
         <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E171" t="s">
         <v>451</v>
@@ -9813,7 +9816,7 @@
         <v>11</v>
       </c>
       <c r="D172" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E172" t="s">
         <v>362</v>
@@ -9855,7 +9858,7 @@
         <v>11</v>
       </c>
       <c r="D173" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E173" t="s">
         <v>354</v>
@@ -9897,7 +9900,7 @@
         <v>11</v>
       </c>
       <c r="D174" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E174" t="s">
         <v>358</v>
@@ -9939,7 +9942,7 @@
         <v>11</v>
       </c>
       <c r="D175" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E175" t="s">
         <v>360</v>
@@ -9981,7 +9984,7 @@
         <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E176" t="s">
         <v>356</v>
@@ -10022,7 +10025,7 @@
         <v>11</v>
       </c>
       <c r="D177" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E177" t="s">
         <v>365</v>
@@ -10146,7 +10149,7 @@
         <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E180" t="s">
         <v>367</v>
@@ -13798,7 +13801,7 @@
         <v>11</v>
       </c>
       <c r="D269" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E269" t="s">
         <v>470</v>
@@ -14003,7 +14006,7 @@
         <v>11</v>
       </c>
       <c r="D274" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E274" t="s">
         <v>422</v>
@@ -14085,7 +14088,7 @@
         <v>11</v>
       </c>
       <c r="D276" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E276" t="s">
         <v>424</v>
@@ -14331,10 +14334,10 @@
         <v>11</v>
       </c>
       <c r="D282" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E282" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F282">
         <v>0.48379815300000001</v>
@@ -14372,10 +14375,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E283" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F283">
         <v>26.979199999999999</v>
@@ -14413,7 +14416,7 @@
         <v>11</v>
       </c>
       <c r="D284" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E284" t="s">
         <v>377</v>
@@ -14448,16 +14451,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C285" t="s">
         <v>11</v>
       </c>
       <c r="D285" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E285" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F285">
         <v>0.28999999999999998</v>
@@ -14483,16 +14486,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C286" t="s">
         <v>11</v>
       </c>
       <c r="D286" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E286" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F286">
         <v>449</v>
@@ -14521,16 +14524,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C287" t="s">
         <v>11</v>
       </c>
       <c r="D287" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E287" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F287">
         <v>975</v>
@@ -14559,16 +14562,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C288" t="s">
         <v>11</v>
       </c>
       <c r="D288" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E288" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F288">
         <v>1235</v>
@@ -14593,6 +14596,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{A7304A51-0837-4D86-BD51-0666C4EE6D05}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/references/background_data/c2-c4.xlsx
+++ b/references/background_data/c2-c4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB251983-67AA-4EB4-8E31-5C7C4674DB8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A2B3FE-883D-4FC2-AA28-17DAEC7C8519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2785,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="G285" sqref="G285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,6 +2869,9 @@
       <c r="K2">
         <v>-8.9999999999999802E-4</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2">
         <v>8.0499999999999995E-15</v>
       </c>
@@ -2910,6 +2913,9 @@
       <c r="K3" s="1">
         <v>-2.0000000000000052E-4</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3">
         <v>2.1700000000000002E-15</v>
       </c>
@@ -2951,7 +2957,9 @@
       <c r="K4" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4">
+        <v>0</v>
+      </c>
       <c r="M4">
         <v>7.9899999999999993E-15</v>
       </c>
@@ -2993,6 +3001,9 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5">
         <v>3.64E-15</v>
       </c>
@@ -3034,6 +3045,9 @@
       <c r="K6" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3075,6 +3089,9 @@
       <c r="K7" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3116,6 +3133,9 @@
       <c r="K8" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3157,6 +3177,9 @@
       <c r="K9" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3198,6 +3221,9 @@
       <c r="K10" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3239,6 +3265,9 @@
       <c r="K11" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
       <c r="M11">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3280,6 +3309,9 @@
       <c r="K12" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3320,6 +3352,9 @@
       </c>
       <c r="K13" s="1">
         <v>-3.9999999999999671E-5</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
       <c r="M13">
         <v>4.0500000000000002E-16</v>
@@ -3362,6 +3397,9 @@
       <c r="K14" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3403,6 +3441,9 @@
       <c r="K15" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3444,6 +3485,9 @@
       <c r="K16" s="1">
         <v>-5.0000000000000044E-4</v>
       </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16">
         <v>5.0600000000000002E-15</v>
       </c>
@@ -3485,6 +3529,9 @@
       <c r="K17" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -3526,6 +3573,9 @@
       <c r="K18" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -3567,6 +3617,9 @@
       <c r="K19" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
       <c r="M19">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -3608,6 +3661,9 @@
       <c r="K20" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -3649,6 +3705,9 @@
       <c r="K21" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="M21">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -3690,6 +3749,9 @@
       <c r="K22" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -3731,6 +3793,9 @@
       <c r="K23" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23">
         <v>3.64E-15</v>
       </c>
@@ -3772,6 +3837,9 @@
       <c r="K24" s="1">
         <v>0.16199999999999998</v>
       </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
       <c r="M24">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -3813,6 +3881,9 @@
       <c r="K25" s="1">
         <v>0.16199999999999998</v>
       </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="M25">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -3854,6 +3925,9 @@
       <c r="K26" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="M26">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -3895,6 +3969,9 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27">
         <v>3.64E-15</v>
       </c>
@@ -3936,6 +4013,9 @@
       <c r="K28" s="1">
         <v>0.65399999999999991</v>
       </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -3977,6 +4057,9 @@
       <c r="K29" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="M29">
         <v>3.64E-15</v>
       </c>
@@ -4018,6 +4101,9 @@
       <c r="K30" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
       <c r="M30">
         <v>3.64E-15</v>
       </c>
@@ -4059,6 +4145,9 @@
       <c r="K31" s="1">
         <v>-6.9999999999999923E-4</v>
       </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
       <c r="M31">
         <v>6.4099999999999996E-15</v>
       </c>
@@ -4100,6 +4189,9 @@
       <c r="K32" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
       <c r="M32">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -4141,6 +4233,9 @@
       <c r="K33" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
       <c r="M33">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -4182,6 +4277,9 @@
       <c r="K34" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
       <c r="M34">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -4223,6 +4321,9 @@
       <c r="K35" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
       <c r="M35">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -4264,6 +4365,9 @@
       <c r="K36" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
       <c r="M36">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -4305,6 +4409,9 @@
       <c r="K37" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
       <c r="M37">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -4346,6 +4453,9 @@
       <c r="K38" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
       <c r="M38">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -4387,6 +4497,9 @@
       <c r="K39" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
       <c r="M39">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -4428,6 +4541,9 @@
       <c r="K40" s="1">
         <v>0</v>
       </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
       <c r="M40">
         <v>3.64E-15</v>
       </c>
@@ -4469,6 +4585,9 @@
       <c r="K41" s="1">
         <v>0</v>
       </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
       <c r="M41">
         <v>3.64E-15</v>
       </c>
@@ -4510,6 +4629,9 @@
       <c r="K42" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
       <c r="M42">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -4551,6 +4673,9 @@
       <c r="K43" s="1">
         <v>-3.0000000000000165E-4</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
       <c r="M43">
         <v>2.8700000000000001E-15</v>
       </c>
@@ -4592,6 +4717,9 @@
       <c r="K44" s="1">
         <v>-3.0000000000000165E-4</v>
       </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
       <c r="M44">
         <v>2.8700000000000001E-15</v>
       </c>
@@ -4633,6 +4761,9 @@
       <c r="K45" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
       <c r="M45">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -4674,6 +4805,9 @@
       <c r="K46" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
       <c r="M46">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -4715,6 +4849,9 @@
       <c r="K47" s="1">
         <v>1.55E-2</v>
       </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
       <c r="M47">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -4756,6 +4893,9 @@
       <c r="K48" s="1">
         <v>1.4000000000000012E-2</v>
       </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
       <c r="M48">
         <v>1.62E-14</v>
       </c>
@@ -4797,6 +4937,9 @@
       <c r="K49" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
       <c r="M49">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -4838,6 +4981,9 @@
       <c r="K50" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
       <c r="M50">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -4879,6 +5025,9 @@
       <c r="K51" s="1">
         <v>-5.9999999999999637E-4</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
       <c r="M51">
         <v>6.0699999999999996E-15</v>
       </c>
@@ -4920,6 +5069,9 @@
       <c r="K52" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
       <c r="M52">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -4961,6 +5113,9 @@
       <c r="K53" s="1">
         <v>-5.0000000000000044E-4</v>
       </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
       <c r="M53">
         <v>5.6700000000000002E-15</v>
       </c>
@@ -5002,6 +5157,9 @@
       <c r="K54" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
       <c r="M54">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -5043,6 +5201,9 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
       <c r="M55">
         <v>3.64E-15</v>
       </c>
@@ -5084,6 +5245,9 @@
       <c r="K56" s="1">
         <v>-2.0000000000000052E-4</v>
       </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
       <c r="M56">
         <v>2.43E-15</v>
       </c>
@@ -5125,6 +5289,9 @@
       <c r="K57" s="1">
         <v>-2.0500000000000001E-2</v>
       </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
       <c r="M57">
         <v>3.64E-15</v>
       </c>
@@ -5166,6 +5333,9 @@
       <c r="K58" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
       <c r="M58">
         <v>3.64E-15</v>
       </c>
@@ -5207,6 +5377,9 @@
       <c r="K59" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
       <c r="M59">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -5248,6 +5421,9 @@
       <c r="K60" s="1">
         <v>0</v>
       </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
       <c r="M60">
         <v>3.64E-15</v>
       </c>
@@ -5289,6 +5465,9 @@
       <c r="K61" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
       <c r="M61">
         <v>3.64E-15</v>
       </c>
@@ -5330,6 +5509,9 @@
       <c r="K62" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
       <c r="M62">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -5371,6 +5553,9 @@
       <c r="K63" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
       <c r="M63">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -5412,6 +5597,9 @@
       <c r="K64" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
       <c r="M64">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -5453,6 +5641,9 @@
       <c r="K65" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
       <c r="M65">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -5494,6 +5685,9 @@
       <c r="K66" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
       <c r="M66">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -5535,6 +5729,9 @@
       <c r="K67" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
       <c r="M67">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -5576,6 +5773,9 @@
       <c r="K68" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
       <c r="M68">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -5617,6 +5817,9 @@
       <c r="K69" s="1">
         <v>0.57000000000000006</v>
       </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
       <c r="M69">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -5658,6 +5861,9 @@
       <c r="K70" s="1">
         <v>-2.0500000000000001E-2</v>
       </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
       <c r="M70">
         <v>3.64E-15</v>
       </c>
@@ -5699,6 +5905,9 @@
       <c r="K71" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
       <c r="M71">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -5740,6 +5949,9 @@
       <c r="K72" s="1">
         <v>-2.9999999999999992E-4</v>
       </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
       <c r="M72">
         <v>2.4100000000000001E-15</v>
       </c>
@@ -5781,6 +5993,9 @@
       <c r="K73" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
       <c r="M73">
         <v>1.149E-14</v>
       </c>
@@ -5822,6 +6037,9 @@
       <c r="K74" s="1">
         <v>1.4100000000000001E-2</v>
       </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
       <c r="M74">
         <v>1.083E-14</v>
       </c>
@@ -5863,6 +6081,9 @@
       <c r="K75" s="1">
         <v>1.4100000000000001E-2</v>
       </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
       <c r="M75">
         <v>1.083E-14</v>
       </c>
@@ -5904,6 +6125,9 @@
       <c r="K76" s="1">
         <v>1.4100000000000001E-2</v>
       </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
       <c r="M76">
         <v>1.083E-14</v>
       </c>
@@ -5945,6 +6169,9 @@
       <c r="K77" s="1">
         <v>2.1200000000000004E-2</v>
       </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
       <c r="M77">
         <v>1.6169999999999999E-14</v>
       </c>
@@ -5986,6 +6213,9 @@
       <c r="K78" s="1">
         <v>-5.1839999999999886E-2</v>
       </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
       <c r="M78">
         <v>5.2399999999999999E-13</v>
       </c>
@@ -6027,6 +6257,9 @@
       <c r="K79" s="1">
         <v>-3.1302899999999939E-4</v>
       </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
       <c r="M79">
         <v>3.11E-15</v>
       </c>
@@ -6068,6 +6301,9 @@
       <c r="K80" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
       <c r="M80">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -6109,6 +6345,9 @@
       <c r="K81" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
       <c r="M81">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -6150,6 +6389,9 @@
       <c r="K82" s="1">
         <v>0.64399999999999991</v>
       </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
       <c r="M82">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -6191,6 +6433,9 @@
       <c r="K83" s="1">
         <v>0.65399999999999991</v>
       </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
       <c r="M83">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -6232,6 +6477,9 @@
       <c r="K84" s="1">
         <v>0</v>
       </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
       <c r="M84">
         <v>3.64E-15</v>
       </c>
@@ -6273,6 +6521,9 @@
       <c r="K85" s="1">
         <v>0</v>
       </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
       <c r="M85">
         <v>3.64E-15</v>
       </c>
@@ -6314,6 +6565,9 @@
       <c r="K86" s="1">
         <v>0</v>
       </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
       <c r="M86">
         <v>3.64E-15</v>
       </c>
@@ -6355,6 +6609,9 @@
       <c r="K87" s="1">
         <v>0</v>
       </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
       <c r="M87">
         <v>3.64E-15</v>
       </c>
@@ -6396,6 +6653,9 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
       <c r="M88">
         <v>3.64E-15</v>
       </c>
@@ -6437,6 +6697,9 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
       <c r="M89">
         <v>3.64E-15</v>
       </c>
@@ -6478,6 +6741,9 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
       <c r="M90">
         <v>3.64E-15</v>
       </c>
@@ -6519,6 +6785,9 @@
       <c r="K91" s="1">
         <v>0</v>
       </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
       <c r="M91">
         <v>3.64E-15</v>
       </c>
@@ -6560,6 +6829,9 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
       <c r="M92">
         <v>3.64E-15</v>
       </c>
@@ -6601,6 +6873,9 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
       <c r="M93">
         <v>3.64E-15</v>
       </c>
@@ -6642,6 +6917,9 @@
       <c r="K94" s="1">
         <v>0</v>
       </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
       <c r="M94">
         <v>3.64E-15</v>
       </c>
@@ -6683,6 +6961,9 @@
       <c r="K95" s="1">
         <v>0</v>
       </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
       <c r="M95">
         <v>3.64E-15</v>
       </c>
@@ -6724,6 +7005,9 @@
       <c r="K96" s="1">
         <v>0</v>
       </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
       <c r="M96">
         <v>3.64E-15</v>
       </c>
@@ -6765,6 +7049,9 @@
       <c r="K97" s="1">
         <v>0</v>
       </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
       <c r="M97">
         <v>3.64E-15</v>
       </c>
@@ -6806,6 +7093,9 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
       <c r="M98">
         <v>3.64E-15</v>
       </c>
@@ -6847,6 +7137,9 @@
       <c r="K99" s="1">
         <v>0</v>
       </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
       <c r="M99">
         <v>3.64E-15</v>
       </c>
@@ -6888,6 +7181,9 @@
       <c r="K100" s="1">
         <v>0</v>
       </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
       <c r="M100">
         <v>3.64E-15</v>
       </c>
@@ -6929,6 +7225,9 @@
       <c r="K101" s="1">
         <v>0</v>
       </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
       <c r="M101">
         <v>3.64E-15</v>
       </c>
@@ -6970,6 +7269,9 @@
       <c r="K102" s="1">
         <v>0</v>
       </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
       <c r="M102">
         <v>3.64E-15</v>
       </c>
@@ -7011,6 +7313,9 @@
       <c r="K103" s="1">
         <v>0</v>
       </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
       <c r="M103">
         <v>3.64E-15</v>
       </c>
@@ -7052,6 +7357,9 @@
       <c r="K104" s="1">
         <v>0</v>
       </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
       <c r="M104">
         <v>3.64E-15</v>
       </c>
@@ -7093,6 +7401,9 @@
       <c r="K105" s="1">
         <v>0</v>
       </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
       <c r="M105">
         <v>3.64E-15</v>
       </c>
@@ -7134,6 +7445,9 @@
       <c r="K106" s="1">
         <v>0</v>
       </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
       <c r="M106">
         <v>3.64E-15</v>
       </c>
@@ -7175,6 +7489,9 @@
       <c r="K107" s="1">
         <v>0</v>
       </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
       <c r="M107">
         <v>3.64E-15</v>
       </c>
@@ -7216,6 +7533,9 @@
       <c r="K108" s="1">
         <v>0</v>
       </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
       <c r="M108">
         <v>3.64E-15</v>
       </c>
@@ -7257,6 +7577,9 @@
       <c r="K109" s="1">
         <v>0</v>
       </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
       <c r="M109">
         <v>3.64E-15</v>
       </c>
@@ -7298,6 +7621,9 @@
       <c r="K110" s="1">
         <v>0</v>
       </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
       <c r="M110">
         <v>3.64E-15</v>
       </c>
@@ -7339,6 +7665,9 @@
       <c r="K111" s="1">
         <v>0</v>
       </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
       <c r="M111">
         <v>3.64E-15</v>
       </c>
@@ -7380,6 +7709,9 @@
       <c r="K112" s="1">
         <v>0</v>
       </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
       <c r="M112">
         <v>3.64E-15</v>
       </c>
@@ -7421,6 +7753,9 @@
       <c r="K113" s="1">
         <v>0</v>
       </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
       <c r="M113">
         <v>3.64E-15</v>
       </c>
@@ -7462,6 +7797,9 @@
       <c r="K114" s="1">
         <v>0</v>
       </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
       <c r="M114">
         <v>3.64E-15</v>
       </c>
@@ -7503,6 +7841,9 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
       <c r="M115">
         <v>3.64E-15</v>
       </c>
@@ -7544,6 +7885,9 @@
       <c r="K116" s="1">
         <v>0</v>
       </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
       <c r="M116">
         <v>3.64E-15</v>
       </c>
@@ -7585,6 +7929,9 @@
       <c r="K117" s="1">
         <v>0</v>
       </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
       <c r="M117">
         <v>3.64E-15</v>
       </c>
@@ -7626,6 +7973,9 @@
       <c r="K118" s="1">
         <v>0</v>
       </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
       <c r="M118">
         <v>3.64E-15</v>
       </c>
@@ -7667,6 +8017,9 @@
       <c r="K119" s="1">
         <v>0</v>
       </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
       <c r="M119">
         <v>3.64E-15</v>
       </c>
@@ -7708,6 +8061,9 @@
       <c r="K120" s="1">
         <v>0</v>
       </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
       <c r="M120">
         <v>3.64E-15</v>
       </c>
@@ -7749,6 +8105,9 @@
       <c r="K121" s="1">
         <v>0</v>
       </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
       <c r="M121">
         <v>3.64E-15</v>
       </c>
@@ -7790,6 +8149,9 @@
       <c r="K122" s="1">
         <v>0</v>
       </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
       <c r="M122">
         <v>3.64E-15</v>
       </c>
@@ -7831,6 +8193,9 @@
       <c r="K123" s="1">
         <v>0</v>
       </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
       <c r="M123">
         <v>3.64E-15</v>
       </c>
@@ -7872,6 +8237,9 @@
       <c r="K124" s="1">
         <v>0</v>
       </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
       <c r="M124">
         <v>3.64E-15</v>
       </c>
@@ -7913,6 +8281,9 @@
       <c r="K125" s="1">
         <v>0</v>
       </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
       <c r="M125">
         <v>3.64E-15</v>
       </c>
@@ -7954,6 +8325,9 @@
       <c r="K126" s="1">
         <v>0</v>
       </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
       <c r="M126">
         <v>3.64E-15</v>
       </c>
@@ -7995,6 +8369,9 @@
       <c r="K127" s="1">
         <v>0</v>
       </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
       <c r="M127">
         <v>3.64E-15</v>
       </c>
@@ -8036,6 +8413,9 @@
       <c r="K128" s="1">
         <v>0</v>
       </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
       <c r="M128">
         <v>3.64E-15</v>
       </c>
@@ -8077,6 +8457,9 @@
       <c r="K129" s="1">
         <v>0</v>
       </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
       <c r="M129">
         <v>3.64E-15</v>
       </c>
@@ -8118,6 +8501,9 @@
       <c r="K130" s="1">
         <v>0</v>
       </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
       <c r="M130">
         <v>3.64E-15</v>
       </c>
@@ -8159,6 +8545,9 @@
       <c r="K131" s="1">
         <v>0</v>
       </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
       <c r="M131">
         <v>3.64E-15</v>
       </c>
@@ -8200,6 +8589,9 @@
       <c r="K132" s="1">
         <v>0</v>
       </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
       <c r="M132">
         <v>3.64E-15</v>
       </c>
@@ -8241,6 +8633,9 @@
       <c r="K133" s="1">
         <v>0</v>
       </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
       <c r="M133">
         <v>3.64E-15</v>
       </c>
@@ -8282,6 +8677,9 @@
       <c r="K134" s="1">
         <v>0</v>
       </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
       <c r="M134">
         <v>3.64E-15</v>
       </c>
@@ -8323,6 +8721,9 @@
       <c r="K135" s="1">
         <v>0</v>
       </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
       <c r="M135">
         <v>3.64E-15</v>
       </c>
@@ -8364,6 +8765,9 @@
       <c r="K136" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
       <c r="M136">
         <v>3.64E-15</v>
       </c>
@@ -8405,6 +8809,9 @@
       <c r="K137" s="1">
         <v>0.62400000000000011</v>
       </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
       <c r="M137">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -8446,6 +8853,9 @@
       <c r="K138" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
       <c r="M138">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -8487,6 +8897,9 @@
       <c r="K139" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
       <c r="M139">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -8528,6 +8941,9 @@
       <c r="K140" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
       <c r="M140">
         <v>3.64E-15</v>
       </c>
@@ -8569,6 +8985,9 @@
       <c r="K141" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
       <c r="M141">
         <v>3.64E-15</v>
       </c>
@@ -8608,6 +9027,9 @@
         <v>0</v>
       </c>
       <c r="K142" s="1"/>
+      <c r="L142">
+        <v>0</v>
+      </c>
       <c r="M142">
         <v>0</v>
       </c>
@@ -8649,6 +9071,9 @@
       <c r="K143" s="1">
         <v>0.64399999999999991</v>
       </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
       <c r="M143">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -8690,6 +9115,9 @@
       <c r="K144" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
       <c r="M144">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -8731,6 +9159,9 @@
       <c r="K145" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
       <c r="M145">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -8772,6 +9203,9 @@
       <c r="K146" s="1">
         <v>0.65399999999999991</v>
       </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
       <c r="M146">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -8813,6 +9247,9 @@
       <c r="K147" s="1">
         <v>0</v>
       </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
       <c r="M147">
         <v>3.64E-15</v>
       </c>
@@ -8854,6 +9291,9 @@
       <c r="K148" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
       <c r="M148">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -8895,6 +9335,9 @@
       <c r="K149" s="1">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
       <c r="M149">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -8936,6 +9379,9 @@
       <c r="K150" s="1">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
       <c r="M150">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -8977,6 +9423,9 @@
       <c r="K151" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
       <c r="M151">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -9018,6 +9467,9 @@
       <c r="K152" s="1">
         <v>-2.0000000000000052E-4</v>
       </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
       <c r="M152">
         <v>2.16E-15</v>
       </c>
@@ -9059,6 +9511,9 @@
       <c r="K153" s="1">
         <v>0</v>
       </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
       <c r="M153">
         <v>3.64E-15</v>
       </c>
@@ -9100,6 +9555,9 @@
       <c r="K154" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
       <c r="M154">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -9141,6 +9599,9 @@
       <c r="K155" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
       <c r="M155">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -9182,6 +9643,9 @@
       <c r="K156" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
       <c r="M156">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -9223,6 +9687,9 @@
       <c r="K157" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
       <c r="M157">
         <v>3.64E-15</v>
       </c>
@@ -9264,6 +9731,9 @@
       <c r="K158" s="1">
         <v>0</v>
       </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
       <c r="M158">
         <v>3.64E-15</v>
       </c>
@@ -9305,6 +9775,9 @@
       <c r="K159" s="1">
         <v>-4.0000000000000036E-3</v>
       </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
       <c r="M159">
         <v>3.8999999999999998E-14</v>
       </c>
@@ -9346,6 +9819,9 @@
       <c r="K160" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
       <c r="M160">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -9387,6 +9863,9 @@
       <c r="K161" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
       <c r="M161">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -9428,6 +9907,9 @@
       <c r="K162" s="1">
         <v>-6.9999999999999923E-4</v>
       </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
       <c r="M162">
         <v>7.6499999999999993E-15</v>
       </c>
@@ -9469,6 +9951,9 @@
       <c r="K163" s="1">
         <v>-7.9999999999999516E-4</v>
       </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
       <c r="M163">
         <v>7.8700000000000005E-15</v>
       </c>
@@ -9510,6 +9995,9 @@
       <c r="K164" s="1">
         <v>-6.9999999999999923E-4</v>
       </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
       <c r="M164">
         <v>6.9600000000000003E-15</v>
       </c>
@@ -9551,6 +10039,9 @@
       <c r="K165" s="1">
         <v>-7.0000000000000617E-4</v>
       </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
       <c r="M165">
         <v>7.0600000000000003E-15</v>
       </c>
@@ -9592,6 +10083,9 @@
       <c r="K166" s="1">
         <v>0</v>
       </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
       <c r="M166">
         <v>6.8499999999999997E-15</v>
       </c>
@@ -9633,6 +10127,9 @@
       <c r="K167" s="1">
         <v>-6.0000000000000331E-4</v>
       </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
       <c r="M167">
         <v>6.8499999999999997E-15</v>
       </c>
@@ -9674,6 +10171,9 @@
       <c r="K168" s="1">
         <v>0</v>
       </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
       <c r="M168">
         <v>7.1100000000000008E-15</v>
       </c>
@@ -9715,6 +10215,9 @@
       <c r="K169" s="1">
         <v>-7.9999999999999516E-4</v>
       </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
       <c r="M169">
         <v>7.1100000000000008E-15</v>
       </c>
@@ -9756,6 +10259,9 @@
       <c r="K170" s="1">
         <v>0</v>
       </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
       <c r="M170">
         <v>7.5400000000000002E-15</v>
       </c>
@@ -9797,7 +10303,9 @@
       <c r="K171" s="1">
         <v>-6.9999999999999923E-4</v>
       </c>
-      <c r="L171" s="1"/>
+      <c r="L171">
+        <v>0</v>
+      </c>
       <c r="M171">
         <v>7.8000000000000005E-15</v>
       </c>
@@ -9839,7 +10347,9 @@
       <c r="K172" s="1">
         <v>-2.0000000000000052E-4</v>
       </c>
-      <c r="L172" s="1"/>
+      <c r="L172">
+        <v>0</v>
+      </c>
       <c r="M172">
         <v>2.43E-15</v>
       </c>
@@ -9881,7 +10391,9 @@
       <c r="K173" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
-      <c r="L173" s="1"/>
+      <c r="L173">
+        <v>0</v>
+      </c>
       <c r="M173">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -9923,7 +10435,9 @@
       <c r="K174" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
-      <c r="L174" s="1"/>
+      <c r="L174">
+        <v>0</v>
+      </c>
       <c r="M174">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -9965,7 +10479,9 @@
       <c r="K175" s="1">
         <v>-2.0000000000000052E-4</v>
       </c>
-      <c r="L175" s="1"/>
+      <c r="L175">
+        <v>0</v>
+      </c>
       <c r="M175">
         <v>2.43E-15</v>
       </c>
@@ -10007,6 +10523,9 @@
       <c r="K176" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
       <c r="M176">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -10048,6 +10567,9 @@
       <c r="K177" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
       <c r="M177">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -10089,6 +10611,9 @@
       <c r="K178" s="1">
         <v>-2.0000000000000052E-4</v>
       </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
       <c r="M178">
         <v>2.43E-15</v>
       </c>
@@ -10130,7 +10655,9 @@
       <c r="K179" s="1">
         <v>-1.6000000000000064E-5</v>
       </c>
-      <c r="L179" s="1"/>
+      <c r="L179">
+        <v>0</v>
+      </c>
       <c r="M179">
         <v>1.5399999999999999E-16</v>
       </c>
@@ -10172,7 +10699,9 @@
       <c r="K180" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
-      <c r="L180" s="1"/>
+      <c r="L180">
+        <v>0</v>
+      </c>
       <c r="M180">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -10214,7 +10743,9 @@
       <c r="K181" s="1">
         <v>-1.699999999999998E-5</v>
       </c>
-      <c r="L181" s="1"/>
+      <c r="L181">
+        <v>0</v>
+      </c>
       <c r="M181">
         <v>1.6199999999999999E-16</v>
       </c>
@@ -10256,6 +10787,9 @@
       <c r="K182" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
       <c r="M182">
         <v>3.64E-15</v>
       </c>
@@ -10297,6 +10831,9 @@
       <c r="K183" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
       <c r="M183">
         <v>3.64E-15</v>
       </c>
@@ -10338,6 +10875,9 @@
       <c r="K184" s="1">
         <v>0</v>
       </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
       <c r="M184">
         <v>3.64E-15</v>
       </c>
@@ -10379,6 +10919,9 @@
       <c r="K185" s="1">
         <v>0</v>
       </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
       <c r="M185">
         <v>3.64E-15</v>
       </c>
@@ -10420,6 +10963,9 @@
       <c r="K186" s="1">
         <v>0</v>
       </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
       <c r="M186">
         <v>3.64E-15</v>
       </c>
@@ -10461,6 +11007,9 @@
       <c r="K187" s="1">
         <v>0</v>
       </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
       <c r="M187">
         <v>3.64E-15</v>
       </c>
@@ -10502,6 +11051,9 @@
       <c r="K188" s="1">
         <v>0</v>
       </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
       <c r="M188">
         <v>3.64E-15</v>
       </c>
@@ -10543,6 +11095,9 @@
       <c r="K189" s="1">
         <v>0</v>
       </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
       <c r="M189">
         <v>3.64E-15</v>
       </c>
@@ -10584,6 +11139,9 @@
       <c r="K190" s="1">
         <v>0</v>
       </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
       <c r="M190">
         <v>3.64E-15</v>
       </c>
@@ -10625,6 +11183,9 @@
       <c r="K191" s="1">
         <v>0</v>
       </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
       <c r="M191">
         <v>3.64E-15</v>
       </c>
@@ -10666,6 +11227,9 @@
       <c r="K192" s="1">
         <v>0</v>
       </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
       <c r="M192">
         <v>3.64E-15</v>
       </c>
@@ -10707,6 +11271,9 @@
       <c r="K193" s="1">
         <v>0</v>
       </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
       <c r="M193">
         <v>3.64E-15</v>
       </c>
@@ -10748,6 +11315,9 @@
       <c r="K194" s="1">
         <v>0</v>
       </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
       <c r="M194">
         <v>3.64E-15</v>
       </c>
@@ -10789,6 +11359,9 @@
       <c r="K195" s="1">
         <v>0</v>
       </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
       <c r="M195">
         <v>3.64E-15</v>
       </c>
@@ -10830,6 +11403,9 @@
       <c r="K196" s="1">
         <v>0</v>
       </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
       <c r="M196">
         <v>3.64E-15</v>
       </c>
@@ -10871,6 +11447,9 @@
       <c r="K197" s="1">
         <v>0</v>
       </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
       <c r="M197">
         <v>3.64E-15</v>
       </c>
@@ -10912,6 +11491,9 @@
       <c r="K198" s="1">
         <v>0</v>
       </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
       <c r="M198">
         <v>3.64E-15</v>
       </c>
@@ -10953,6 +11535,9 @@
       <c r="K199" s="1">
         <v>0</v>
       </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
       <c r="M199">
         <v>3.64E-15</v>
       </c>
@@ -10994,6 +11579,9 @@
       <c r="K200" s="1">
         <v>0</v>
       </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
       <c r="M200">
         <v>3.64E-15</v>
       </c>
@@ -11035,6 +11623,9 @@
       <c r="K201" s="1">
         <v>0</v>
       </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
       <c r="M201">
         <v>3.64E-15</v>
       </c>
@@ -11076,6 +11667,9 @@
       <c r="K202" s="1">
         <v>0</v>
       </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
       <c r="M202">
         <v>3.64E-15</v>
       </c>
@@ -11117,6 +11711,9 @@
       <c r="K203" s="1">
         <v>0</v>
       </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
       <c r="M203">
         <v>3.64E-15</v>
       </c>
@@ -11158,6 +11755,9 @@
       <c r="K204" s="1">
         <v>0</v>
       </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
       <c r="M204">
         <v>3.64E-15</v>
       </c>
@@ -11199,6 +11799,9 @@
       <c r="K205" s="1">
         <v>0</v>
       </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
       <c r="M205">
         <v>3.64E-15</v>
       </c>
@@ -11240,6 +11843,9 @@
       <c r="K206" s="1">
         <v>0</v>
       </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
       <c r="M206">
         <v>3.64E-15</v>
       </c>
@@ -11281,6 +11887,9 @@
       <c r="K207" s="1">
         <v>0</v>
       </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
       <c r="M207">
         <v>3.64E-15</v>
       </c>
@@ -11322,6 +11931,9 @@
       <c r="K208" s="1">
         <v>0</v>
       </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
       <c r="M208">
         <v>3.64E-15</v>
       </c>
@@ -11363,6 +11975,9 @@
       <c r="K209" s="1">
         <v>0</v>
       </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
       <c r="M209">
         <v>3.64E-15</v>
       </c>
@@ -11404,6 +12019,9 @@
       <c r="K210" s="1">
         <v>0</v>
       </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
       <c r="M210">
         <v>3.64E-15</v>
       </c>
@@ -11445,6 +12063,9 @@
       <c r="K211" s="1">
         <v>0</v>
       </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
       <c r="M211">
         <v>3.64E-15</v>
       </c>
@@ -11486,6 +12107,9 @@
       <c r="K212" s="1">
         <v>0</v>
       </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
       <c r="M212">
         <v>3.64E-15</v>
       </c>
@@ -11527,6 +12151,9 @@
       <c r="K213" s="1">
         <v>0</v>
       </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
       <c r="M213">
         <v>3.64E-15</v>
       </c>
@@ -11568,6 +12195,9 @@
       <c r="K214" s="1">
         <v>0</v>
       </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
       <c r="M214">
         <v>3.64E-15</v>
       </c>
@@ -11609,6 +12239,9 @@
       <c r="K215" s="1">
         <v>0</v>
       </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
       <c r="M215">
         <v>3.64E-15</v>
       </c>
@@ -11650,6 +12283,9 @@
       <c r="K216" s="1">
         <v>0</v>
       </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
       <c r="M216">
         <v>3.64E-15</v>
       </c>
@@ -11691,6 +12327,9 @@
       <c r="K217" s="1">
         <v>0</v>
       </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
       <c r="M217">
         <v>3.64E-15</v>
       </c>
@@ -11732,6 +12371,9 @@
       <c r="K218" s="1">
         <v>0</v>
       </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
       <c r="M218">
         <v>3.64E-15</v>
       </c>
@@ -11773,6 +12415,9 @@
       <c r="K219" s="1">
         <v>0</v>
       </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
       <c r="M219">
         <v>3.64E-15</v>
       </c>
@@ -11814,6 +12459,9 @@
       <c r="K220" s="1">
         <v>0</v>
       </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
       <c r="M220">
         <v>3.64E-15</v>
       </c>
@@ -11855,6 +12503,9 @@
       <c r="K221" s="1">
         <v>0</v>
       </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
       <c r="M221">
         <v>3.64E-15</v>
       </c>
@@ -11896,6 +12547,9 @@
       <c r="K222" s="1">
         <v>0</v>
       </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
       <c r="M222">
         <v>3.64E-15</v>
       </c>
@@ -11937,6 +12591,9 @@
       <c r="K223" s="1">
         <v>0</v>
       </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
       <c r="M223">
         <v>3.64E-15</v>
       </c>
@@ -11978,6 +12635,9 @@
       <c r="K224" s="1">
         <v>0</v>
       </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
       <c r="M224">
         <v>3.64E-15</v>
       </c>
@@ -12019,6 +12679,9 @@
       <c r="K225" s="1">
         <v>0</v>
       </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
       <c r="M225">
         <v>3.64E-15</v>
       </c>
@@ -12060,6 +12723,9 @@
       <c r="K226" s="1">
         <v>0</v>
       </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
       <c r="M226">
         <v>3.64E-15</v>
       </c>
@@ -12101,6 +12767,9 @@
       <c r="K227" s="1">
         <v>0</v>
       </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
       <c r="M227">
         <v>3.64E-15</v>
       </c>
@@ -12142,6 +12811,9 @@
       <c r="K228" s="1">
         <v>0</v>
       </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
       <c r="M228">
         <v>3.64E-15</v>
       </c>
@@ -12183,6 +12855,9 @@
       <c r="K229" s="1">
         <v>0</v>
       </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
       <c r="M229">
         <v>3.64E-15</v>
       </c>
@@ -12224,6 +12899,9 @@
       <c r="K230" s="1">
         <v>0</v>
       </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
       <c r="M230">
         <v>3.64E-15</v>
       </c>
@@ -12265,6 +12943,9 @@
       <c r="K231" s="1">
         <v>0</v>
       </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
       <c r="M231">
         <v>3.64E-15</v>
       </c>
@@ -12306,6 +12987,9 @@
       <c r="K232" s="1">
         <v>0</v>
       </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
       <c r="M232">
         <v>3.64E-15</v>
       </c>
@@ -12347,6 +13031,9 @@
       <c r="K233" s="1">
         <v>0</v>
       </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
       <c r="M233">
         <v>3.64E-15</v>
       </c>
@@ -12388,6 +13075,9 @@
       <c r="K234" s="1">
         <v>0</v>
       </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
       <c r="M234">
         <v>3.64E-15</v>
       </c>
@@ -12429,6 +13119,9 @@
       <c r="K235" s="1">
         <v>0</v>
       </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
       <c r="M235">
         <v>3.64E-15</v>
       </c>
@@ -12470,6 +13163,9 @@
       <c r="K236" s="1">
         <v>0</v>
       </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
       <c r="M236">
         <v>3.64E-15</v>
       </c>
@@ -12511,6 +13207,9 @@
       <c r="K237" s="1">
         <v>0</v>
       </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
       <c r="M237">
         <v>3.64E-15</v>
       </c>
@@ -12552,6 +13251,9 @@
       <c r="K238" s="1">
         <v>0</v>
       </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
       <c r="M238">
         <v>3.64E-15</v>
       </c>
@@ -12593,6 +13295,9 @@
       <c r="K239" s="1">
         <v>0</v>
       </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
       <c r="M239">
         <v>3.64E-15</v>
       </c>
@@ -12634,6 +13339,9 @@
       <c r="K240" s="1">
         <v>0</v>
       </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
       <c r="M240">
         <v>3.64E-15</v>
       </c>
@@ -12675,6 +13383,9 @@
       <c r="K241" s="1">
         <v>0</v>
       </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
       <c r="M241">
         <v>3.64E-15</v>
       </c>
@@ -12716,6 +13427,9 @@
       <c r="K242" s="1">
         <v>0</v>
       </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
       <c r="M242">
         <v>3.64E-15</v>
       </c>
@@ -12757,6 +13471,9 @@
       <c r="K243" s="1">
         <v>0</v>
       </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
       <c r="M243">
         <v>3.64E-15</v>
       </c>
@@ -12798,6 +13515,9 @@
       <c r="K244" s="1">
         <v>0</v>
       </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
       <c r="M244">
         <v>3.64E-15</v>
       </c>
@@ -12839,6 +13559,9 @@
       <c r="K245" s="1">
         <v>0</v>
       </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
       <c r="M245">
         <v>3.64E-15</v>
       </c>
@@ -12880,6 +13603,9 @@
       <c r="K246" s="1">
         <v>0</v>
       </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
       <c r="M246">
         <v>3.64E-15</v>
       </c>
@@ -12921,6 +13647,9 @@
       <c r="K247" s="1">
         <v>0</v>
       </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
       <c r="M247">
         <v>3.64E-15</v>
       </c>
@@ -12962,6 +13691,9 @@
       <c r="K248" s="1">
         <v>0</v>
       </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
       <c r="M248">
         <v>3.64E-15</v>
       </c>
@@ -13003,6 +13735,9 @@
       <c r="K249" s="1">
         <v>0</v>
       </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
       <c r="M249">
         <v>3.64E-15</v>
       </c>
@@ -13044,6 +13779,9 @@
       <c r="K250" s="1">
         <v>0</v>
       </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
       <c r="M250">
         <v>3.64E-15</v>
       </c>
@@ -13085,6 +13823,9 @@
       <c r="K251" s="1">
         <v>0</v>
       </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
       <c r="M251">
         <v>3.64E-15</v>
       </c>
@@ -13126,6 +13867,9 @@
       <c r="K252" s="1">
         <v>0</v>
       </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
       <c r="M252">
         <v>3.64E-15</v>
       </c>
@@ -13167,6 +13911,9 @@
       <c r="K253" s="1">
         <v>0</v>
       </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
       <c r="M253">
         <v>3.64E-15</v>
       </c>
@@ -13208,6 +13955,9 @@
       <c r="K254" s="1">
         <v>0</v>
       </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
       <c r="M254">
         <v>3.64E-15</v>
       </c>
@@ -13249,6 +13999,9 @@
       <c r="K255" s="1">
         <v>0</v>
       </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
       <c r="M255">
         <v>3.64E-15</v>
       </c>
@@ -13290,6 +14043,9 @@
       <c r="K256" s="1">
         <v>0</v>
       </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
       <c r="M256">
         <v>3.64E-15</v>
       </c>
@@ -13331,6 +14087,9 @@
       <c r="K257" s="1">
         <v>0</v>
       </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
       <c r="M257">
         <v>3.64E-15</v>
       </c>
@@ -13372,6 +14131,9 @@
       <c r="K258" s="1">
         <v>0</v>
       </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
       <c r="M258">
         <v>3.64E-15</v>
       </c>
@@ -13413,6 +14175,9 @@
       <c r="K259" s="1">
         <v>0</v>
       </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
       <c r="M259">
         <v>3.64E-15</v>
       </c>
@@ -13454,6 +14219,9 @@
       <c r="K260" s="1">
         <v>0</v>
       </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
       <c r="M260">
         <v>3.64E-15</v>
       </c>
@@ -13495,6 +14263,9 @@
       <c r="K261" s="1">
         <v>0</v>
       </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
       <c r="M261">
         <v>3.64E-15</v>
       </c>
@@ -13536,6 +14307,9 @@
       <c r="K262" s="1">
         <v>0</v>
       </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
       <c r="M262">
         <v>3.64E-15</v>
       </c>
@@ -13577,6 +14351,9 @@
       <c r="K263" s="1">
         <v>0</v>
       </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
       <c r="M263">
         <v>3.64E-15</v>
       </c>
@@ -13618,6 +14395,9 @@
       <c r="K264" s="1">
         <v>0</v>
       </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
       <c r="M264">
         <v>3.64E-15</v>
       </c>
@@ -13659,6 +14439,9 @@
       <c r="K265" s="1">
         <v>0</v>
       </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
       <c r="M265">
         <v>3.64E-15</v>
       </c>
@@ -13700,7 +14483,9 @@
       <c r="K266" s="1">
         <v>0</v>
       </c>
-      <c r="L266" s="1"/>
+      <c r="L266">
+        <v>0</v>
+      </c>
       <c r="M266">
         <v>3.64E-15</v>
       </c>
@@ -13742,6 +14527,9 @@
       <c r="K267" s="1">
         <v>0</v>
       </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
       <c r="M267">
         <v>3.64E-15</v>
       </c>
@@ -13783,6 +14571,9 @@
       <c r="K268" s="1">
         <v>0</v>
       </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
       <c r="M268">
         <v>3.64E-15</v>
       </c>
@@ -13824,6 +14615,9 @@
       <c r="K269" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
       <c r="M269">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -13865,6 +14659,9 @@
       <c r="K270" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
       <c r="M270">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -13906,6 +14703,9 @@
       <c r="K271" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
       <c r="M271">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -13947,6 +14747,9 @@
       <c r="K272" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
       <c r="M272">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -13988,6 +14791,9 @@
       <c r="K273" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
       <c r="M273">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -14029,6 +14835,9 @@
       <c r="K274" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
       <c r="M274">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -14070,6 +14879,9 @@
       <c r="K275" s="1">
         <v>0</v>
       </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
       <c r="M275">
         <v>3.64E-15</v>
       </c>
@@ -14111,6 +14923,9 @@
       <c r="K276" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
       <c r="M276">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -14152,6 +14967,9 @@
       <c r="K277" s="1">
         <v>-3.9999999999999671E-5</v>
       </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
       <c r="M277">
         <v>4.0500000000000002E-16</v>
       </c>
@@ -14193,6 +15011,9 @@
       <c r="K278" s="1">
         <v>-1.6000000000000042E-4</v>
       </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
       <c r="M278">
         <v>1.54E-15</v>
       </c>
@@ -14234,6 +15055,9 @@
       <c r="K279" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
       <c r="M279">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -14275,6 +15099,9 @@
       <c r="K280" s="1">
         <v>0.66399999999999992</v>
       </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
       <c r="M280">
         <v>9.3100000000000002E-15</v>
       </c>
@@ -14316,6 +15143,9 @@
       <c r="K281" s="1">
         <v>-2.9999999999999818E-4</v>
       </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
       <c r="M281">
         <v>3.13E-15</v>
       </c>
@@ -14357,6 +15187,9 @@
       <c r="K282" s="1">
         <v>0</v>
       </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
       <c r="M282">
         <v>1.15E-8</v>
       </c>
@@ -14398,6 +15231,9 @@
       <c r="K283" s="1">
         <v>0</v>
       </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
       <c r="M283">
         <v>8.8499999999999998E-9</v>
       </c>
@@ -14439,6 +15275,9 @@
       <c r="K284" s="1">
         <v>-8.000000000000021E-4</v>
       </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
       <c r="M284">
         <v>8.0900000000000001E-15</v>
       </c>
@@ -14465,6 +15304,9 @@
       <c r="F285">
         <v>0.28999999999999998</v>
       </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
       <c r="H285">
         <v>2.2900000000000001E-4</v>
       </c>
@@ -14473,6 +15315,12 @@
       </c>
       <c r="J285">
         <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
       </c>
       <c r="M285">
         <v>2.67E-15</v>
@@ -14512,6 +15360,12 @@
       <c r="J286">
         <v>0.52</v>
       </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
       <c r="M286">
         <v>8.3400000000000006E-15</v>
       </c>
@@ -14550,6 +15404,12 @@
       <c r="J287">
         <v>4.3799999999999999E-2</v>
       </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
       <c r="M287">
         <v>7.9199999999999993E-15</v>
       </c>
@@ -14587,6 +15447,12 @@
       </c>
       <c r="J288">
         <v>4.48E-2</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
       </c>
       <c r="M288">
         <v>8.0900000000000001E-15</v>

--- a/references/background_data/c2-c4.xlsx
+++ b/references/background_data/c2-c4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A2B3FE-883D-4FC2-AA28-17DAEC7C8519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7808CC0-EB1C-4743-BDF2-49A180684807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="c2-c4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'c2-c4'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'c2-c4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="639">
   <si>
     <t>id_PODLCA</t>
   </si>
@@ -1939,6 +1939,9 @@
   </si>
   <si>
     <t>Aluminum storefront system, YKK AP - EPD</t>
+  </si>
+  <si>
+    <t>stored_carbon_eol</t>
   </si>
 </sst>
 </file>
@@ -2783,15 +2786,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N288"/>
+  <dimension ref="A1:O288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="G285" sqref="G285"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2829,13 +2832,16 @@
         <v>635</v>
       </c>
       <c r="M1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2873,13 +2879,16 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>8.0499999999999995E-15</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2917,13 +2926,16 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>2.1700000000000002E-15</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.56E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2961,13 +2973,16 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>7.9899999999999993E-15</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3005,13 +3020,16 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>3.64E-15</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3049,13 +3067,16 @@
         <v>0</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3093,13 +3114,16 @@
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3137,13 +3161,16 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3181,13 +3208,16 @@
         <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3225,13 +3255,16 @@
         <v>0</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3269,13 +3302,16 @@
         <v>0</v>
       </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3313,13 +3349,16 @@
         <v>0</v>
       </c>
       <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3357,13 +3396,16 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3401,13 +3443,16 @@
         <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3445,13 +3490,16 @@
         <v>0</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3489,13 +3537,16 @@
         <v>0</v>
       </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>5.0600000000000002E-15</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3533,13 +3584,16 @@
         <v>0</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3577,13 +3631,16 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3621,13 +3678,16 @@
         <v>0</v>
       </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3665,13 +3725,16 @@
         <v>0</v>
       </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3709,13 +3772,16 @@
         <v>0</v>
       </c>
       <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3753,13 +3819,16 @@
         <v>0</v>
       </c>
       <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3797,13 +3866,16 @@
         <v>0</v>
       </c>
       <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>3.64E-15</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3841,13 +3913,16 @@
         <v>0</v>
       </c>
       <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>7.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3885,13 +3960,16 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>7.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3929,13 +4007,16 @@
         <v>0</v>
       </c>
       <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3973,13 +4054,16 @@
         <v>0</v>
       </c>
       <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>3.64E-15</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4017,13 +4101,16 @@
         <v>0</v>
       </c>
       <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4061,13 +4148,16 @@
         <v>0</v>
       </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>3.64E-15</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4105,13 +4195,16 @@
         <v>0</v>
       </c>
       <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>3.64E-15</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4149,13 +4242,16 @@
         <v>0</v>
       </c>
       <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>6.4099999999999996E-15</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4193,13 +4289,16 @@
         <v>0</v>
       </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4237,13 +4336,16 @@
         <v>0</v>
       </c>
       <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4281,13 +4383,16 @@
         <v>0</v>
       </c>
       <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4325,13 +4430,16 @@
         <v>0</v>
       </c>
       <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4369,13 +4477,16 @@
         <v>0</v>
       </c>
       <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4413,13 +4524,16 @@
         <v>0</v>
       </c>
       <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4457,13 +4571,16 @@
         <v>0</v>
       </c>
       <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4501,13 +4618,16 @@
         <v>0</v>
       </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4545,13 +4665,16 @@
         <v>0</v>
       </c>
       <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <v>3.64E-15</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4589,13 +4712,16 @@
         <v>0</v>
       </c>
       <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <v>3.64E-15</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4633,13 +4759,16 @@
         <v>0</v>
       </c>
       <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4677,13 +4806,16 @@
         <v>0</v>
       </c>
       <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
         <v>2.8700000000000001E-15</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>1.4300000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4721,13 +4853,16 @@
         <v>0</v>
       </c>
       <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
         <v>2.8700000000000001E-15</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>1.4300000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4765,13 +4900,16 @@
         <v>0</v>
       </c>
       <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4809,13 +4947,16 @@
         <v>0</v>
       </c>
       <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4853,13 +4994,16 @@
         <v>0</v>
       </c>
       <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>4.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4897,13 +5041,16 @@
         <v>0</v>
       </c>
       <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
         <v>1.62E-14</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4941,13 +5088,16 @@
         <v>0</v>
       </c>
       <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4985,13 +5135,16 @@
         <v>0</v>
       </c>
       <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5029,13 +5182,16 @@
         <v>0</v>
       </c>
       <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>6.0699999999999996E-15</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>3.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5073,13 +5229,16 @@
         <v>0</v>
       </c>
       <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5117,13 +5276,16 @@
         <v>0</v>
       </c>
       <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
         <v>5.6700000000000002E-15</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>2.82E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5161,13 +5323,16 @@
         <v>0</v>
       </c>
       <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5205,13 +5370,16 @@
         <v>0</v>
       </c>
       <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
         <v>3.64E-15</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5249,13 +5417,16 @@
         <v>0</v>
       </c>
       <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
         <v>2.43E-15</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5293,13 +5464,16 @@
         <v>0</v>
       </c>
       <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
         <v>3.64E-15</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5337,13 +5511,16 @@
         <v>0</v>
       </c>
       <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
         <v>3.64E-15</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5381,13 +5558,16 @@
         <v>0</v>
       </c>
       <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5425,13 +5605,16 @@
         <v>0</v>
       </c>
       <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
         <v>3.64E-15</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5469,13 +5652,16 @@
         <v>0</v>
       </c>
       <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
         <v>3.64E-15</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5513,13 +5699,16 @@
         <v>0</v>
       </c>
       <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5557,13 +5746,16 @@
         <v>0</v>
       </c>
       <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5601,13 +5793,16 @@
         <v>0</v>
       </c>
       <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5645,13 +5840,16 @@
         <v>0</v>
       </c>
       <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5689,13 +5887,16 @@
         <v>0</v>
       </c>
       <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5733,13 +5934,16 @@
         <v>0</v>
       </c>
       <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5777,13 +5981,16 @@
         <v>0</v>
       </c>
       <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5821,13 +6028,16 @@
         <v>0</v>
       </c>
       <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5865,13 +6075,16 @@
         <v>0</v>
       </c>
       <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>3.64E-15</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5909,13 +6122,16 @@
         <v>0</v>
       </c>
       <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5953,13 +6169,16 @@
         <v>0</v>
       </c>
       <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
         <v>2.4100000000000001E-15</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>1.66E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5997,13 +6216,16 @@
         <v>0</v>
       </c>
       <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
         <v>1.149E-14</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>6.2899999999999996E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6041,13 +6263,16 @@
         <v>0</v>
       </c>
       <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>1.083E-14</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>5.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6085,13 +6310,16 @@
         <v>0</v>
       </c>
       <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
         <v>1.083E-14</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>5.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6129,13 +6357,16 @@
         <v>0</v>
       </c>
       <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
         <v>1.083E-14</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>5.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6173,13 +6404,16 @@
         <v>0</v>
       </c>
       <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
         <v>1.6169999999999999E-14</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>8.0599999999999995E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6217,13 +6451,16 @@
         <v>0</v>
       </c>
       <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
         <v>5.2399999999999999E-13</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>0.26114399999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6261,13 +6498,16 @@
         <v>0</v>
       </c>
       <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
         <v>3.11E-15</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>2.0415239999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6305,13 +6545,16 @@
         <v>0</v>
       </c>
       <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6349,13 +6592,16 @@
         <v>0</v>
       </c>
       <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6393,13 +6639,16 @@
         <v>0</v>
       </c>
       <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6437,13 +6686,16 @@
         <v>0</v>
       </c>
       <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6481,13 +6733,16 @@
         <v>0</v>
       </c>
       <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
         <v>3.64E-15</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6525,13 +6780,16 @@
         <v>0</v>
       </c>
       <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
         <v>3.64E-15</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6569,13 +6827,16 @@
         <v>0</v>
       </c>
       <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
         <v>3.64E-15</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6613,13 +6874,16 @@
         <v>0</v>
       </c>
       <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
         <v>3.64E-15</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6657,13 +6921,16 @@
         <v>0</v>
       </c>
       <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
         <v>3.64E-15</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6701,13 +6968,16 @@
         <v>0</v>
       </c>
       <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
         <v>3.64E-15</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6745,13 +7015,16 @@
         <v>0</v>
       </c>
       <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
         <v>3.64E-15</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6789,13 +7062,16 @@
         <v>0</v>
       </c>
       <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
         <v>3.64E-15</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6833,13 +7109,16 @@
         <v>0</v>
       </c>
       <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
         <v>3.64E-15</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6877,13 +7156,16 @@
         <v>0</v>
       </c>
       <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
         <v>3.64E-15</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6921,13 +7203,16 @@
         <v>0</v>
       </c>
       <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
         <v>3.64E-15</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6965,13 +7250,16 @@
         <v>0</v>
       </c>
       <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
         <v>3.64E-15</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7009,13 +7297,16 @@
         <v>0</v>
       </c>
       <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
         <v>3.64E-15</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7053,13 +7344,16 @@
         <v>0</v>
       </c>
       <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
         <v>3.64E-15</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7097,13 +7391,16 @@
         <v>0</v>
       </c>
       <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
         <v>3.64E-15</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7141,13 +7438,16 @@
         <v>0</v>
       </c>
       <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
         <v>3.64E-15</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7185,13 +7485,16 @@
         <v>0</v>
       </c>
       <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
         <v>3.64E-15</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7229,13 +7532,16 @@
         <v>0</v>
       </c>
       <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
         <v>3.64E-15</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7273,13 +7579,16 @@
         <v>0</v>
       </c>
       <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
         <v>3.64E-15</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7317,13 +7626,16 @@
         <v>0</v>
       </c>
       <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
         <v>3.64E-15</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7361,13 +7673,16 @@
         <v>0</v>
       </c>
       <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
         <v>3.64E-15</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7405,13 +7720,16 @@
         <v>0</v>
       </c>
       <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
         <v>3.64E-15</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7449,13 +7767,16 @@
         <v>0</v>
       </c>
       <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
         <v>3.64E-15</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7493,13 +7814,16 @@
         <v>0</v>
       </c>
       <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
         <v>3.64E-15</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7537,13 +7861,16 @@
         <v>0</v>
       </c>
       <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
         <v>3.64E-15</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7581,13 +7908,16 @@
         <v>0</v>
       </c>
       <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
         <v>3.64E-15</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7625,13 +7955,16 @@
         <v>0</v>
       </c>
       <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
         <v>3.64E-15</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7669,13 +8002,16 @@
         <v>0</v>
       </c>
       <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
         <v>3.64E-15</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7713,13 +8049,16 @@
         <v>0</v>
       </c>
       <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
         <v>3.64E-15</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7757,13 +8096,16 @@
         <v>0</v>
       </c>
       <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
         <v>3.64E-15</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7801,13 +8143,16 @@
         <v>0</v>
       </c>
       <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
         <v>3.64E-15</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7845,13 +8190,16 @@
         <v>0</v>
       </c>
       <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
         <v>3.64E-15</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7889,13 +8237,16 @@
         <v>0</v>
       </c>
       <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
         <v>3.64E-15</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7933,13 +8284,16 @@
         <v>0</v>
       </c>
       <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
         <v>3.64E-15</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7977,13 +8331,16 @@
         <v>0</v>
       </c>
       <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
         <v>3.64E-15</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8021,13 +8378,16 @@
         <v>0</v>
       </c>
       <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
         <v>3.64E-15</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8065,13 +8425,16 @@
         <v>0</v>
       </c>
       <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
         <v>3.64E-15</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8109,13 +8472,16 @@
         <v>0</v>
       </c>
       <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
         <v>3.64E-15</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8153,13 +8519,16 @@
         <v>0</v>
       </c>
       <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
         <v>3.64E-15</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8197,13 +8566,16 @@
         <v>0</v>
       </c>
       <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
         <v>3.64E-15</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8241,13 +8613,16 @@
         <v>0</v>
       </c>
       <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
         <v>3.64E-15</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8285,13 +8660,16 @@
         <v>0</v>
       </c>
       <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
         <v>3.64E-15</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8329,13 +8707,16 @@
         <v>0</v>
       </c>
       <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
         <v>3.64E-15</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8373,13 +8754,16 @@
         <v>0</v>
       </c>
       <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
         <v>3.64E-15</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8417,13 +8801,16 @@
         <v>0</v>
       </c>
       <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
         <v>3.64E-15</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8461,13 +8848,16 @@
         <v>0</v>
       </c>
       <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
         <v>3.64E-15</v>
       </c>
-      <c r="N129">
+      <c r="O129">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8505,13 +8895,16 @@
         <v>0</v>
       </c>
       <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
         <v>3.64E-15</v>
       </c>
-      <c r="N130">
+      <c r="O130">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8549,13 +8942,16 @@
         <v>0</v>
       </c>
       <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
         <v>3.64E-15</v>
       </c>
-      <c r="N131">
+      <c r="O131">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8593,13 +8989,16 @@
         <v>0</v>
       </c>
       <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
         <v>3.64E-15</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8637,13 +9036,16 @@
         <v>0</v>
       </c>
       <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
         <v>3.64E-15</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8681,13 +9083,16 @@
         <v>0</v>
       </c>
       <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
         <v>3.64E-15</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8725,13 +9130,16 @@
         <v>0</v>
       </c>
       <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
         <v>3.64E-15</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8769,13 +9177,16 @@
         <v>0</v>
       </c>
       <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
         <v>3.64E-15</v>
       </c>
-      <c r="N136">
+      <c r="O136">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8813,13 +9224,16 @@
         <v>0</v>
       </c>
       <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N137">
+      <c r="O137">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8857,13 +9271,16 @@
         <v>0</v>
       </c>
       <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8901,13 +9318,16 @@
         <v>0</v>
       </c>
       <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N139">
+      <c r="O139">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8945,13 +9365,16 @@
         <v>0</v>
       </c>
       <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
         <v>3.64E-15</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8989,13 +9412,16 @@
         <v>0</v>
       </c>
       <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
         <v>3.64E-15</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9036,8 +9462,11 @@
       <c r="N142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9075,13 +9504,16 @@
         <v>0</v>
       </c>
       <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N143">
+      <c r="O143">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9119,13 +9551,16 @@
         <v>0</v>
       </c>
       <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9163,13 +9598,16 @@
         <v>0</v>
       </c>
       <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N145">
+      <c r="O145">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9207,13 +9645,16 @@
         <v>0</v>
       </c>
       <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N146">
+      <c r="O146">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9251,13 +9692,16 @@
         <v>0</v>
       </c>
       <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
         <v>3.64E-15</v>
       </c>
-      <c r="N147">
+      <c r="O147">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9295,13 +9739,16 @@
         <v>0</v>
       </c>
       <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N148">
+      <c r="O148">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9339,13 +9786,16 @@
         <v>0</v>
       </c>
       <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N149">
+      <c r="O149">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9383,13 +9833,16 @@
         <v>0</v>
       </c>
       <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N150">
+      <c r="O150">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9427,13 +9880,16 @@
         <v>0</v>
       </c>
       <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N151">
+      <c r="O151">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9471,13 +9927,16 @@
         <v>0</v>
       </c>
       <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
         <v>2.16E-15</v>
       </c>
-      <c r="N152">
+      <c r="O152">
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9515,13 +9974,16 @@
         <v>0</v>
       </c>
       <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
         <v>3.64E-15</v>
       </c>
-      <c r="N153">
+      <c r="O153">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9559,13 +10021,16 @@
         <v>0</v>
       </c>
       <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N154">
+      <c r="O154">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9603,13 +10068,16 @@
         <v>0</v>
       </c>
       <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N155">
+      <c r="O155">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9647,13 +10115,16 @@
         <v>0</v>
       </c>
       <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N156">
+      <c r="O156">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9691,13 +10162,16 @@
         <v>0</v>
       </c>
       <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
         <v>3.64E-15</v>
       </c>
-      <c r="N157">
+      <c r="O157">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9735,13 +10209,16 @@
         <v>0</v>
       </c>
       <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
         <v>3.64E-15</v>
       </c>
-      <c r="N158">
+      <c r="O158">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9779,13 +10256,16 @@
         <v>0</v>
       </c>
       <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
         <v>3.8999999999999998E-14</v>
       </c>
-      <c r="N159">
+      <c r="O159">
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9823,13 +10303,16 @@
         <v>0</v>
       </c>
       <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N160">
+      <c r="O160">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9867,13 +10350,16 @@
         <v>0</v>
       </c>
       <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N161">
+      <c r="O161">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9911,13 +10397,16 @@
         <v>0</v>
       </c>
       <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
         <v>7.6499999999999993E-15</v>
       </c>
-      <c r="N162">
+      <c r="O162">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9955,13 +10444,16 @@
         <v>0</v>
       </c>
       <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
         <v>7.8700000000000005E-15</v>
       </c>
-      <c r="N163">
+      <c r="O163">
         <v>5.6600000000000001E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9999,13 +10491,16 @@
         <v>0</v>
       </c>
       <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
         <v>6.9600000000000003E-15</v>
       </c>
-      <c r="N164">
+      <c r="O164">
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10043,13 +10538,16 @@
         <v>0</v>
       </c>
       <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
         <v>7.0600000000000003E-15</v>
       </c>
-      <c r="N165">
+      <c r="O165">
         <v>3.5200000000000001E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10087,13 +10585,16 @@
         <v>0</v>
       </c>
       <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
         <v>6.8499999999999997E-15</v>
       </c>
-      <c r="N166">
+      <c r="O166">
         <v>3.4199999999999999E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10131,13 +10632,16 @@
         <v>0</v>
       </c>
       <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
         <v>6.8499999999999997E-15</v>
       </c>
-      <c r="N167">
+      <c r="O167">
         <v>4.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10175,13 +10679,16 @@
         <v>0</v>
       </c>
       <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
         <v>7.1100000000000008E-15</v>
       </c>
-      <c r="N168">
+      <c r="O168">
         <v>3.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10219,13 +10726,16 @@
         <v>0</v>
       </c>
       <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
         <v>7.1100000000000008E-15</v>
       </c>
-      <c r="N169">
+      <c r="O169">
         <v>4.8799999999999998E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10263,13 +10773,16 @@
         <v>0</v>
       </c>
       <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
         <v>7.5400000000000002E-15</v>
       </c>
-      <c r="N170">
+      <c r="O170">
         <v>3.7599999999999999E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10307,13 +10820,16 @@
         <v>0</v>
       </c>
       <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
         <v>7.8000000000000005E-15</v>
       </c>
-      <c r="N171">
+      <c r="O171">
         <v>3.8800000000000002E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10351,13 +10867,16 @@
         <v>0</v>
       </c>
       <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
         <v>2.43E-15</v>
       </c>
-      <c r="N172">
+      <c r="O172">
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10395,13 +10914,16 @@
         <v>0</v>
       </c>
       <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N173">
+      <c r="O173">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10439,13 +10961,16 @@
         <v>0</v>
       </c>
       <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N174">
+      <c r="O174">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10483,13 +11008,16 @@
         <v>0</v>
       </c>
       <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
         <v>2.43E-15</v>
       </c>
-      <c r="N175">
+      <c r="O175">
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10527,13 +11055,16 @@
         <v>0</v>
       </c>
       <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N176">
+      <c r="O176">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10571,13 +11102,16 @@
         <v>0</v>
       </c>
       <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N177">
+      <c r="O177">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10615,13 +11149,16 @@
         <v>0</v>
       </c>
       <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
         <v>2.43E-15</v>
       </c>
-      <c r="N178">
+      <c r="O178">
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10659,13 +11196,16 @@
         <v>0</v>
       </c>
       <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
         <v>1.5399999999999999E-16</v>
       </c>
-      <c r="N179">
+      <c r="O179">
         <v>7.6899999999999999E-5</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -10703,13 +11243,16 @@
         <v>0</v>
       </c>
       <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N180">
+      <c r="O180">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -10747,13 +11290,16 @@
         <v>0</v>
       </c>
       <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
         <v>1.6199999999999999E-16</v>
       </c>
-      <c r="N181">
+      <c r="O181">
         <v>8.0699999999999996E-5</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -10791,13 +11337,16 @@
         <v>0</v>
       </c>
       <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
         <v>3.64E-15</v>
       </c>
-      <c r="N182">
+      <c r="O182">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -10835,13 +11384,16 @@
         <v>0</v>
       </c>
       <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
         <v>3.64E-15</v>
       </c>
-      <c r="N183">
+      <c r="O183">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -10879,13 +11431,16 @@
         <v>0</v>
       </c>
       <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
         <v>3.64E-15</v>
       </c>
-      <c r="N184">
+      <c r="O184">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -10923,13 +11478,16 @@
         <v>0</v>
       </c>
       <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
         <v>3.64E-15</v>
       </c>
-      <c r="N185">
+      <c r="O185">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -10967,13 +11525,16 @@
         <v>0</v>
       </c>
       <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
         <v>3.64E-15</v>
       </c>
-      <c r="N186">
+      <c r="O186">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -11011,13 +11572,16 @@
         <v>0</v>
       </c>
       <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
         <v>3.64E-15</v>
       </c>
-      <c r="N187">
+      <c r="O187">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -11055,13 +11619,16 @@
         <v>0</v>
       </c>
       <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
         <v>3.64E-15</v>
       </c>
-      <c r="N188">
+      <c r="O188">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -11099,13 +11666,16 @@
         <v>0</v>
       </c>
       <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
         <v>3.64E-15</v>
       </c>
-      <c r="N189">
+      <c r="O189">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -11143,13 +11713,16 @@
         <v>0</v>
       </c>
       <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
         <v>3.64E-15</v>
       </c>
-      <c r="N190">
+      <c r="O190">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -11187,13 +11760,16 @@
         <v>0</v>
       </c>
       <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
         <v>3.64E-15</v>
       </c>
-      <c r="N191">
+      <c r="O191">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -11231,13 +11807,16 @@
         <v>0</v>
       </c>
       <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
         <v>3.64E-15</v>
       </c>
-      <c r="N192">
+      <c r="O192">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -11275,13 +11854,16 @@
         <v>0</v>
       </c>
       <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
         <v>3.64E-15</v>
       </c>
-      <c r="N193">
+      <c r="O193">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -11319,13 +11901,16 @@
         <v>0</v>
       </c>
       <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
         <v>3.64E-15</v>
       </c>
-      <c r="N194">
+      <c r="O194">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -11363,13 +11948,16 @@
         <v>0</v>
       </c>
       <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
         <v>3.64E-15</v>
       </c>
-      <c r="N195">
+      <c r="O195">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -11407,13 +11995,16 @@
         <v>0</v>
       </c>
       <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
         <v>3.64E-15</v>
       </c>
-      <c r="N196">
+      <c r="O196">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -11451,13 +12042,16 @@
         <v>0</v>
       </c>
       <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
         <v>3.64E-15</v>
       </c>
-      <c r="N197">
+      <c r="O197">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -11495,13 +12089,16 @@
         <v>0</v>
       </c>
       <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
         <v>3.64E-15</v>
       </c>
-      <c r="N198">
+      <c r="O198">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -11539,13 +12136,16 @@
         <v>0</v>
       </c>
       <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
         <v>3.64E-15</v>
       </c>
-      <c r="N199">
+      <c r="O199">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -11583,13 +12183,16 @@
         <v>0</v>
       </c>
       <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
         <v>3.64E-15</v>
       </c>
-      <c r="N200">
+      <c r="O200">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -11627,13 +12230,16 @@
         <v>0</v>
       </c>
       <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
         <v>3.64E-15</v>
       </c>
-      <c r="N201">
+      <c r="O201">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -11671,13 +12277,16 @@
         <v>0</v>
       </c>
       <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
         <v>3.64E-15</v>
       </c>
-      <c r="N202">
+      <c r="O202">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -11715,13 +12324,16 @@
         <v>0</v>
       </c>
       <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
         <v>3.64E-15</v>
       </c>
-      <c r="N203">
+      <c r="O203">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -11759,13 +12371,16 @@
         <v>0</v>
       </c>
       <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
         <v>3.64E-15</v>
       </c>
-      <c r="N204">
+      <c r="O204">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -11803,13 +12418,16 @@
         <v>0</v>
       </c>
       <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
         <v>3.64E-15</v>
       </c>
-      <c r="N205">
+      <c r="O205">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -11847,13 +12465,16 @@
         <v>0</v>
       </c>
       <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
         <v>3.64E-15</v>
       </c>
-      <c r="N206">
+      <c r="O206">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -11891,13 +12512,16 @@
         <v>0</v>
       </c>
       <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
         <v>3.64E-15</v>
       </c>
-      <c r="N207">
+      <c r="O207">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -11935,13 +12559,16 @@
         <v>0</v>
       </c>
       <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
         <v>3.64E-15</v>
       </c>
-      <c r="N208">
+      <c r="O208">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -11979,13 +12606,16 @@
         <v>0</v>
       </c>
       <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
         <v>3.64E-15</v>
       </c>
-      <c r="N209">
+      <c r="O209">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -12023,13 +12653,16 @@
         <v>0</v>
       </c>
       <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
         <v>3.64E-15</v>
       </c>
-      <c r="N210">
+      <c r="O210">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -12067,13 +12700,16 @@
         <v>0</v>
       </c>
       <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
         <v>3.64E-15</v>
       </c>
-      <c r="N211">
+      <c r="O211">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -12111,13 +12747,16 @@
         <v>0</v>
       </c>
       <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
         <v>3.64E-15</v>
       </c>
-      <c r="N212">
+      <c r="O212">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -12155,13 +12794,16 @@
         <v>0</v>
       </c>
       <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
         <v>3.64E-15</v>
       </c>
-      <c r="N213">
+      <c r="O213">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -12199,13 +12841,16 @@
         <v>0</v>
       </c>
       <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
         <v>3.64E-15</v>
       </c>
-      <c r="N214">
+      <c r="O214">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -12243,13 +12888,16 @@
         <v>0</v>
       </c>
       <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
         <v>3.64E-15</v>
       </c>
-      <c r="N215">
+      <c r="O215">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -12287,13 +12935,16 @@
         <v>0</v>
       </c>
       <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
         <v>3.64E-15</v>
       </c>
-      <c r="N216">
+      <c r="O216">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -12331,13 +12982,16 @@
         <v>0</v>
       </c>
       <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
         <v>3.64E-15</v>
       </c>
-      <c r="N217">
+      <c r="O217">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -12375,13 +13029,16 @@
         <v>0</v>
       </c>
       <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
         <v>3.64E-15</v>
       </c>
-      <c r="N218">
+      <c r="O218">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -12419,13 +13076,16 @@
         <v>0</v>
       </c>
       <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
         <v>3.64E-15</v>
       </c>
-      <c r="N219">
+      <c r="O219">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -12463,13 +13123,16 @@
         <v>0</v>
       </c>
       <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
         <v>3.64E-15</v>
       </c>
-      <c r="N220">
+      <c r="O220">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -12507,13 +13170,16 @@
         <v>0</v>
       </c>
       <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
         <v>3.64E-15</v>
       </c>
-      <c r="N221">
+      <c r="O221">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -12551,13 +13217,16 @@
         <v>0</v>
       </c>
       <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
         <v>3.64E-15</v>
       </c>
-      <c r="N222">
+      <c r="O222">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -12595,13 +13264,16 @@
         <v>0</v>
       </c>
       <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
         <v>3.64E-15</v>
       </c>
-      <c r="N223">
+      <c r="O223">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -12639,13 +13311,16 @@
         <v>0</v>
       </c>
       <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
         <v>3.64E-15</v>
       </c>
-      <c r="N224">
+      <c r="O224">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -12683,13 +13358,16 @@
         <v>0</v>
       </c>
       <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
         <v>3.64E-15</v>
       </c>
-      <c r="N225">
+      <c r="O225">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -12727,13 +13405,16 @@
         <v>0</v>
       </c>
       <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
         <v>3.64E-15</v>
       </c>
-      <c r="N226">
+      <c r="O226">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -12771,13 +13452,16 @@
         <v>0</v>
       </c>
       <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
         <v>3.64E-15</v>
       </c>
-      <c r="N227">
+      <c r="O227">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -12815,13 +13499,16 @@
         <v>0</v>
       </c>
       <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
         <v>3.64E-15</v>
       </c>
-      <c r="N228">
+      <c r="O228">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -12859,13 +13546,16 @@
         <v>0</v>
       </c>
       <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
         <v>3.64E-15</v>
       </c>
-      <c r="N229">
+      <c r="O229">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -12903,13 +13593,16 @@
         <v>0</v>
       </c>
       <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
         <v>3.64E-15</v>
       </c>
-      <c r="N230">
+      <c r="O230">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -12947,13 +13640,16 @@
         <v>0</v>
       </c>
       <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
         <v>3.64E-15</v>
       </c>
-      <c r="N231">
+      <c r="O231">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -12991,13 +13687,16 @@
         <v>0</v>
       </c>
       <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
         <v>3.64E-15</v>
       </c>
-      <c r="N232">
+      <c r="O232">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -13035,13 +13734,16 @@
         <v>0</v>
       </c>
       <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
         <v>3.64E-15</v>
       </c>
-      <c r="N233">
+      <c r="O233">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -13079,13 +13781,16 @@
         <v>0</v>
       </c>
       <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
         <v>3.64E-15</v>
       </c>
-      <c r="N234">
+      <c r="O234">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -13123,13 +13828,16 @@
         <v>0</v>
       </c>
       <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
         <v>3.64E-15</v>
       </c>
-      <c r="N235">
+      <c r="O235">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -13167,13 +13875,16 @@
         <v>0</v>
       </c>
       <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
         <v>3.64E-15</v>
       </c>
-      <c r="N236">
+      <c r="O236">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -13211,13 +13922,16 @@
         <v>0</v>
       </c>
       <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
         <v>3.64E-15</v>
       </c>
-      <c r="N237">
+      <c r="O237">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -13255,13 +13969,16 @@
         <v>0</v>
       </c>
       <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
         <v>3.64E-15</v>
       </c>
-      <c r="N238">
+      <c r="O238">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -13299,13 +14016,16 @@
         <v>0</v>
       </c>
       <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
         <v>3.64E-15</v>
       </c>
-      <c r="N239">
+      <c r="O239">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -13343,13 +14063,16 @@
         <v>0</v>
       </c>
       <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
         <v>3.64E-15</v>
       </c>
-      <c r="N240">
+      <c r="O240">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -13387,13 +14110,16 @@
         <v>0</v>
       </c>
       <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
         <v>3.64E-15</v>
       </c>
-      <c r="N241">
+      <c r="O241">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -13431,13 +14157,16 @@
         <v>0</v>
       </c>
       <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
         <v>3.64E-15</v>
       </c>
-      <c r="N242">
+      <c r="O242">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -13475,13 +14204,16 @@
         <v>0</v>
       </c>
       <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
         <v>3.64E-15</v>
       </c>
-      <c r="N243">
+      <c r="O243">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -13519,13 +14251,16 @@
         <v>0</v>
       </c>
       <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
         <v>3.64E-15</v>
       </c>
-      <c r="N244">
+      <c r="O244">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -13563,13 +14298,16 @@
         <v>0</v>
       </c>
       <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
         <v>3.64E-15</v>
       </c>
-      <c r="N245">
+      <c r="O245">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -13607,13 +14345,16 @@
         <v>0</v>
       </c>
       <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
         <v>3.64E-15</v>
       </c>
-      <c r="N246">
+      <c r="O246">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -13651,13 +14392,16 @@
         <v>0</v>
       </c>
       <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
         <v>3.64E-15</v>
       </c>
-      <c r="N247">
+      <c r="O247">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -13695,13 +14439,16 @@
         <v>0</v>
       </c>
       <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
         <v>3.64E-15</v>
       </c>
-      <c r="N248">
+      <c r="O248">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -13739,13 +14486,16 @@
         <v>0</v>
       </c>
       <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
         <v>3.64E-15</v>
       </c>
-      <c r="N249">
+      <c r="O249">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -13783,13 +14533,16 @@
         <v>0</v>
       </c>
       <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
         <v>3.64E-15</v>
       </c>
-      <c r="N250">
+      <c r="O250">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -13827,13 +14580,16 @@
         <v>0</v>
       </c>
       <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
         <v>3.64E-15</v>
       </c>
-      <c r="N251">
+      <c r="O251">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -13871,13 +14627,16 @@
         <v>0</v>
       </c>
       <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
         <v>3.64E-15</v>
       </c>
-      <c r="N252">
+      <c r="O252">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -13915,13 +14674,16 @@
         <v>0</v>
       </c>
       <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
         <v>3.64E-15</v>
       </c>
-      <c r="N253">
+      <c r="O253">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -13959,13 +14721,16 @@
         <v>0</v>
       </c>
       <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
         <v>3.64E-15</v>
       </c>
-      <c r="N254">
+      <c r="O254">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -14003,13 +14768,16 @@
         <v>0</v>
       </c>
       <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
         <v>3.64E-15</v>
       </c>
-      <c r="N255">
+      <c r="O255">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -14047,13 +14815,16 @@
         <v>0</v>
       </c>
       <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
         <v>3.64E-15</v>
       </c>
-      <c r="N256">
+      <c r="O256">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -14091,13 +14862,16 @@
         <v>0</v>
       </c>
       <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
         <v>3.64E-15</v>
       </c>
-      <c r="N257">
+      <c r="O257">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -14135,13 +14909,16 @@
         <v>0</v>
       </c>
       <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
         <v>3.64E-15</v>
       </c>
-      <c r="N258">
+      <c r="O258">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -14179,13 +14956,16 @@
         <v>0</v>
       </c>
       <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
         <v>3.64E-15</v>
       </c>
-      <c r="N259">
+      <c r="O259">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -14223,13 +15003,16 @@
         <v>0</v>
       </c>
       <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
         <v>3.64E-15</v>
       </c>
-      <c r="N260">
+      <c r="O260">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -14267,13 +15050,16 @@
         <v>0</v>
       </c>
       <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
         <v>3.64E-15</v>
       </c>
-      <c r="N261">
+      <c r="O261">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -14311,13 +15097,16 @@
         <v>0</v>
       </c>
       <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
         <v>3.64E-15</v>
       </c>
-      <c r="N262">
+      <c r="O262">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -14355,13 +15144,16 @@
         <v>0</v>
       </c>
       <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
         <v>3.64E-15</v>
       </c>
-      <c r="N263">
+      <c r="O263">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -14399,13 +15191,16 @@
         <v>0</v>
       </c>
       <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
         <v>3.64E-15</v>
       </c>
-      <c r="N264">
+      <c r="O264">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -14443,13 +15238,16 @@
         <v>0</v>
       </c>
       <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
         <v>3.64E-15</v>
       </c>
-      <c r="N265">
+      <c r="O265">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -14487,13 +15285,16 @@
         <v>0</v>
       </c>
       <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
         <v>3.64E-15</v>
       </c>
-      <c r="N266">
+      <c r="O266">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -14531,13 +15332,16 @@
         <v>0</v>
       </c>
       <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
         <v>3.64E-15</v>
       </c>
-      <c r="N267">
+      <c r="O267">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -14575,13 +15379,16 @@
         <v>0</v>
       </c>
       <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
         <v>3.64E-15</v>
       </c>
-      <c r="N268">
+      <c r="O268">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -14619,13 +15426,16 @@
         <v>0</v>
       </c>
       <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N269">
+      <c r="O269">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -14663,13 +15473,16 @@
         <v>0</v>
       </c>
       <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N270">
+      <c r="O270">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -14707,13 +15520,16 @@
         <v>0</v>
       </c>
       <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N271">
+      <c r="O271">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -14751,13 +15567,16 @@
         <v>0</v>
       </c>
       <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N272">
+      <c r="O272">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -14795,13 +15614,16 @@
         <v>0</v>
       </c>
       <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N273">
+      <c r="O273">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -14839,13 +15661,16 @@
         <v>0</v>
       </c>
       <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N274">
+      <c r="O274">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -14883,13 +15708,16 @@
         <v>0</v>
       </c>
       <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
         <v>3.64E-15</v>
       </c>
-      <c r="N275">
+      <c r="O275">
         <v>1.82E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -14927,13 +15755,16 @@
         <v>0</v>
       </c>
       <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N276">
+      <c r="O276">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -14971,13 +15802,16 @@
         <v>0</v>
       </c>
       <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
         <v>4.0500000000000002E-16</v>
       </c>
-      <c r="N277">
+      <c r="O277">
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -15015,13 +15849,16 @@
         <v>0</v>
       </c>
       <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
         <v>1.54E-15</v>
       </c>
-      <c r="N278">
+      <c r="O278">
         <v>1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -15059,13 +15896,16 @@
         <v>0</v>
       </c>
       <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N279">
+      <c r="O279">
         <v>5.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -15103,13 +15943,16 @@
         <v>0</v>
       </c>
       <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
         <v>9.3100000000000002E-15</v>
       </c>
-      <c r="N280">
+      <c r="O280">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -15147,13 +15990,16 @@
         <v>0</v>
       </c>
       <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
         <v>3.13E-15</v>
       </c>
-      <c r="N281">
+      <c r="O281">
         <v>2.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -15191,13 +16037,16 @@
         <v>0</v>
       </c>
       <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
         <v>1.15E-8</v>
       </c>
-      <c r="N282">
+      <c r="O282">
         <v>7.1343279999999997E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -15235,13 +16084,16 @@
         <v>0</v>
       </c>
       <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
         <v>8.8499999999999998E-9</v>
       </c>
-      <c r="N283">
+      <c r="O283">
         <v>5.5469760000000003E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -15279,13 +16131,16 @@
         <v>0</v>
       </c>
       <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N284">
+      <c r="O284">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -15323,13 +16178,16 @@
         <v>0</v>
       </c>
       <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
         <v>2.67E-15</v>
       </c>
-      <c r="N285">
+      <c r="O285">
         <v>1.92E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -15367,13 +16225,16 @@
         <v>0</v>
       </c>
       <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
         <v>8.3400000000000006E-15</v>
       </c>
-      <c r="N286">
+      <c r="O286">
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -15411,13 +16272,16 @@
         <v>0</v>
       </c>
       <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
         <v>7.9199999999999993E-15</v>
       </c>
-      <c r="N287">
+      <c r="O287">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -15455,14 +16319,17 @@
         <v>0</v>
       </c>
       <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
         <v>8.0900000000000001E-15</v>
       </c>
-      <c r="N288">
+      <c r="O288">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{A7304A51-0837-4D86-BD51-0666C4EE6D05}"/>
+  <autoFilter ref="A1:O1" xr:uid="{A7304A51-0837-4D86-BD51-0666C4EE6D05}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>